--- a/Oneday_Server_food_DBMS/다이어트 - 테이블 명세 - 0512.xlsx
+++ b/Oneday_Server_food_DBMS/다이어트 - 테이블 명세 - 0512.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="140">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -556,6 +556,22 @@
   </si>
   <si>
     <t>fDTO.set</t>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,";</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql += "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>)";</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -624,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -906,6 +922,15 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -919,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +1014,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1022,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2029,20 +2057,20 @@
       <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="27" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="29">
+      <c r="I2" s="28"/>
+      <c r="J2" s="30">
         <v>44328</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2054,18 +2082,18 @@
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="28" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -2074,18 +2102,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3162,20 +3190,20 @@
       <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="27" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="29">
+      <c r="I2" s="28"/>
+      <c r="J2" s="30">
         <v>44328</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -3187,18 +3215,18 @@
       <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="28" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -3207,18 +3235,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4229,20 +4257,20 @@
       <c r="C2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="27" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="29">
+      <c r="I2" s="28"/>
+      <c r="J2" s="30">
         <v>44328</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -4254,18 +4282,18 @@
       <c r="C3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="28" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -4274,18 +4302,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5264,20 +5292,20 @@
       <c r="C2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="27" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="29">
+      <c r="I2" s="28"/>
+      <c r="J2" s="30">
         <v>44328</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -5289,18 +5317,18 @@
       <c r="C3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="28" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -5309,18 +5337,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5679,16 +5707,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5842,11 +5870,11 @@
       <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
@@ -5913,10 +5941,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N5" sqref="L2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5928,14 +5956,14 @@
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -5960,11 +5988,20 @@
       <c r="I2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="23" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
@@ -5989,11 +6026,20 @@
       <c r="I3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="23" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -6018,11 +6064,20 @@
       <c r="I4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="23" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
@@ -6047,11 +6102,20 @@
       <c r="I5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="23" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -6076,11 +6140,11 @@
       <c r="I6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>131</v>
       </c>
@@ -6105,11 +6169,11 @@
       <c r="I7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>125</v>
       </c>
@@ -6134,11 +6198,11 @@
       <c r="I8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>126</v>
       </c>
@@ -6163,11 +6227,11 @@
       <c r="I9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>127</v>
       </c>
@@ -6192,11 +6256,11 @@
       <c r="I10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>128</v>
       </c>
@@ -6221,11 +6285,11 @@
       <c r="I11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>129</v>
       </c>
@@ -6250,11 +6314,11 @@
       <c r="I12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>130</v>
       </c>
@@ -6279,11 +6343,11 @@
       <c r="I13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>87</v>
       </c>
@@ -6308,11 +6372,11 @@
       <c r="I14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>88</v>
       </c>
@@ -6337,11 +6401,11 @@
       <c r="I15" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>89</v>
       </c>
@@ -6366,7 +6430,7 @@
       <c r="I16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="23" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6395,7 +6459,7 @@
       <c r="I17" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="23" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6424,7 +6488,7 @@
       <c r="I18" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="23" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6453,7 +6517,7 @@
       <c r="I19" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="23" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6471,7 +6535,9 @@
       <c r="F23" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21" t="s">
         <v>69</v>
